--- a/电力系统脆弱性研究/指标及权重分配/权重分配.xlsx
+++ b/电力系统脆弱性研究/指标及权重分配/权重分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,13 +126,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
               <a:t>结构脆弱性</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39751887810140241"/>
+          <c:y val="5.1120139875973282E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -170,6 +180,16 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -182,7 +202,14 @@
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -195,14 +222,21 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -215,14 +249,21 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -235,8 +276,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11139134089953762"/>
-                  <c:y val="7.8431372549019551E-2"/>
+                  <c:x val="-0.17947648126354393"/>
+                  <c:y val="8.9855922254673842E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -248,7 +289,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.14174758700306145"/>
+                      <c:h val="0.12099493680594471"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-60FC-4BE0-A098-75B7A1C122D2}"/>
@@ -259,8 +305,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.6237915090374108E-2"/>
-                  <c:y val="-0.16013071895424849"/>
+                  <c:x val="6.2419200027181022E-2"/>
+                  <c:y val="-0.21125095913156142"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -283,8 +329,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.4068936527952845E-2"/>
-                  <c:y val="0.12091503267973856"/>
+                  <c:x val="0.12721886705909335"/>
+                  <c:y val="0.15925508496962226"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -296,7 +342,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.10604715065956562"/>
+                      <c:h val="0.10360004528358847"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-60FC-4BE0-A098-75B7A1C122D2}"/>
@@ -351,7 +402,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -417,7 +467,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31824231922466001"/>
+          <c:y val="0.85878609150759277"/>
+          <c:w val="0.35812161829285905"/>
+          <c:h val="9.6483773102713416E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -456,12 +515,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -518,13 +572,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
               <a:t>状态脆弱性</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39166666666666666"/>
+          <c:y val="4.48635861851443E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -562,6 +626,16 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -574,7 +648,14 @@
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -587,14 +668,21 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -607,14 +695,21 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -627,10 +722,36 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17222222222222233"/>
-                  <c:y val="8.6522630499921205E-2"/>
+                  <c:x val="-0.15"/>
+                  <c:y val="0.12653536817723904"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7F4807B9-8AE7-480F-BA31-0112975C33A4}" type="CATEGORYNAME">
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[类别名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{C349CC7C-65ED-4B68-AA8A-AA927D425B47}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[百分比]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -641,6 +762,8 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-AD17-4613-A6ED-822DF7D4CFBA}"/>
@@ -651,10 +774,32 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1"/>
-                  <c:y val="-0.1153635073332282"/>
+                  <c:x val="-8.611111111111111E-2"/>
+                  <c:y val="-0.18205161394326852"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AD554440-9221-45A9-86CE-7A259EEF8E18}" type="CATEGORYNAME">
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[类别名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{4F358667-E20A-4CAC-97D8-FDD62A72C0F6}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[百分比]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -665,6 +810,8 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-AD17-4613-A6ED-822DF7D4CFBA}"/>
@@ -675,10 +822,36 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21111111111111111"/>
-                  <c:y val="6.088629553698155E-2"/>
+                  <c:x val="0.17777777777777778"/>
+                  <c:y val="9.4230247662176067E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{941E2DF7-836A-4DC2-B074-F40AD99B63B8}" type="CATEGORYNAME">
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[类别名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{D38BA9D2-9796-4315-B5F0-710D35A9B94E}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[百分比]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -689,6 +862,8 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-AD17-4613-A6ED-822DF7D4CFBA}"/>
@@ -792,7 +967,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -806,7 +981,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31556736657917756"/>
+          <c:y val="0.86037145256863279"/>
+          <c:w val="0.36886526684164478"/>
+          <c:h val="7.9609281404503338E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -845,12 +1029,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1995,16 +2174,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>490330</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192157</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2025,16 +2204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212033</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>26275</xdr:rowOff>
+      <xdr:colOff>536713</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2321,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
